--- a/project/excel/monarch_kg_qc_schema.xlsx
+++ b/project/excel/monarch_kg_qc_schema.xlsx
@@ -7,9 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Report" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ReportCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SubReport" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="EdgeReport" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NodeReport" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NodeTypeReport" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="PredicateReport" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,17 +429,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dangling_edges</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>edges</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>nodes</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>missing_nodes</t>
         </is>
       </c>
     </row>
@@ -446,6 +454,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>namespaces</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>total_number</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>node_types</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>predicates</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>namespaces</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_number</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>namespaces</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>total_number</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -462,57 +628,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>primary_email</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>birth_date</t>
+          <t>taxon</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
+          <t>categories</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>namespaces</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>total_number</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +684,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>entries</t>
+          <t>missing_object_namespaces</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>missing_objects</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>missing_subject_namespaces</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>missing_subjects</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>total_number</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>uri</t>
         </is>
       </c>
     </row>
